--- a/UZr/UZr_FP_180.xlsx
+++ b/UZr/UZr_FP_180.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959648C-F689-5544-83DB-E3704AF827CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE0F3E-72E0-A74E-9DE3-873EBD0CE442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="4880" windowWidth="26440" windowHeight="18240" xr2:uid="{ABC50AB5-0B2F-1540-950D-AE67340F2ADD}"/>
   </bookViews>
@@ -1630,6 +1630,9 @@
                 <c:pt idx="1">
                   <c:v>1.8327834722221548</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6844517222221382</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.87276247222213854</c:v>
                 </c:pt>
@@ -2098,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.5307999999997719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.39059999999994943</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.22969999999986612</c:v>
@@ -6100,8 +6106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7EB0D-18C4-DE4A-B702-12071299D562}">
   <dimension ref="B2:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
-      <selection activeCell="U62" sqref="U62"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="V65" sqref="V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9168,8 +9174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A35014-8646-AC4E-8C8D-99120A49E037}">
   <dimension ref="C3:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9248,7 +9254,9 @@
       <c r="E5" s="1">
         <v>1.8327834722221548</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1.6844517222221382</v>
+      </c>
       <c r="G5" s="1">
         <v>0.87276247222213854</v>
       </c>
@@ -9339,7 +9347,9 @@
       <c r="E8" s="4">
         <v>-0.5307999999997719</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1">
+        <v>-0.39059999999994943</v>
+      </c>
       <c r="G8" s="4">
         <v>-0.22969999999986612</v>
       </c>

--- a/UZr/UZr_FP_180.xlsx
+++ b/UZr/UZr_FP_180.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE0F3E-72E0-A74E-9DE3-873EBD0CE442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B344E-C009-0844-974E-5A2230459F09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="4880" windowWidth="26440" windowHeight="18240" xr2:uid="{ABC50AB5-0B2F-1540-950D-AE67340F2ADD}"/>
+    <workbookView xWindow="1900" yWindow="4880" windowWidth="32760" windowHeight="19500" xr2:uid="{ABC50AB5-0B2F-1540-950D-AE67340F2ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="fission products" sheetId="2" r:id="rId2"/>
-    <sheet name="summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="fission products" sheetId="2" r:id="rId3"/>
+    <sheet name="summary" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="121">
   <si>
     <t>180 atoms</t>
   </si>
@@ -375,14 +376,30 @@
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>alpha U</t>
+  </si>
+  <si>
+    <t>isif3</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -438,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -451,6 +468,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6106,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7EB0D-18C4-DE4A-B702-12071299D562}">
   <dimension ref="B2:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="V65" sqref="V65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8921,6 +8939,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE378AC-BAF1-434B-84DE-AE07AA292025}">
+  <dimension ref="B2:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>14.018982948</v>
+      </c>
+      <c r="D3">
+        <v>17.515856878000001</v>
+      </c>
+      <c r="E3">
+        <v>14.71184032</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>14.06989168</v>
+      </c>
+      <c r="D4">
+        <v>17.614583529000001</v>
+      </c>
+      <c r="E4">
+        <v>14.734332650000001</v>
+      </c>
+      <c r="F4" s="12">
+        <f>(C4-C$3)/C$3</f>
+        <v>3.631414075388595E-3</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:H5" si="0">(D4-D$3)/D$3</f>
+        <v>5.6364157167783733E-3</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5288590353596493E-3</v>
+      </c>
+      <c r="I4" s="12">
+        <f>F4*100</f>
+        <v>0.36314140753885948</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:K5" si="1">G4*100</f>
+        <v>0.56364157167783735</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="1"/>
+        <v>0.15288590353596493</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>14.016492119</v>
+      </c>
+      <c r="D5">
+        <v>17.506800910999999</v>
+      </c>
+      <c r="E5">
+        <v>14.700385552</v>
+      </c>
+      <c r="F5" s="12">
+        <f>(C5-C$3)/C$3</f>
+        <v>-1.7767544259368303E-4</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>-5.1701535717480211E-4</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>-7.7860877706971432E-4</v>
+      </c>
+      <c r="I5" s="12">
+        <f>F5*100</f>
+        <v>-1.7767544259368301E-2</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>-5.1701535717480214E-2</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
+        <v>-7.7860877706971435E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-2004.9865</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-2012.0055</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10-181/180*C9</f>
+        <v>4.119813888888757</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-1992.0685000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11-179/180*C9</f>
+        <v>1.7791861111111302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5BF561-728A-C348-B424-F9053307E39C}">
   <dimension ref="B2:G20"/>
   <sheetViews>
@@ -9170,7 +9341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A35014-8646-AC4E-8C8D-99120A49E037}">
   <dimension ref="C3:N26"/>
   <sheetViews>
